--- a/Logs/Steve Logs.xlsx
+++ b/Logs/Steve Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\ACED\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C04D7-9222-414C-9455-7B093F044B86}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642F6E09-F836-4984-B4D7-75218AE2C6D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12450" xr2:uid="{54F9F0B9-730A-4184-A29C-BFC1BCA2ABBF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="53">
   <si>
     <t>Video analysis detailed log</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>If happiness is greater, we are good. Change music prematurely if results are poor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope levels of happiness, determine the amoutn of success we get </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key parameter?? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create our own level of how this adds to happiness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater the delta, the greater it adds to happiness levels </t>
   </si>
 </sst>
 </file>
@@ -537,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CA1584-91CD-41A9-A876-E218E19BF5D8}">
   <dimension ref="A1:V449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,6 +566,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
@@ -561,6 +578,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -586,6 +606,9 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
@@ -606,6 +629,9 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
       <c r="O8" s="2" t="s">
         <v>45</v>
       </c>
